--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3144608.578584759</v>
+        <v>3141127.858745664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7229959.815688843</v>
+        <v>7226419.939346331</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -671,13 +671,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>382.460141644626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.0808770396431</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>44.91846290925592</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>120.754046148268</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.5427277865414</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>124.1671395916798</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>3.589257717040946</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,13 +981,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>46.55034350106225</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>100.8538645611667</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1045920014102</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5700598743327</v>
+        <v>45.12882297795195</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.7109993851801766</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>110.1799926165849</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>32.33376274836434</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1582,16 +1582,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,10 +1613,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>159.3338585767644</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>14.29773523203468</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.883777166515</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.482250613591</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277557</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059314</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
         <v>127.2743219418611</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.9239119118958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443488</v>
+        <v>48.81858568179592</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782425</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.47323292810665</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994638</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.72284161259276</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498489</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.89393170155694</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184785</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.7580891527121</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
@@ -3752,13 +3752,13 @@
         <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>37.99245879234326</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>37.9924587923431</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415647</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443888</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627861</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915772</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892499</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131712</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788916</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906109</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351701</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090443</v>
@@ -3952,13 +3952,13 @@
         <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246149</v>
@@ -3989,13 +3989,13 @@
         <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>106.3740388304705</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822801</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812811</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995156</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>4.644159264160947</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460419</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415646</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443887</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627859</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491577</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892497</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131711</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788915</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906108</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.195140003517</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090443</v>
@@ -4189,7 +4189,7 @@
         <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
         <v>166.8527122571522</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.977512488515</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="C2" t="n">
-        <v>1392.977512488515</v>
+        <v>1631.740793434044</v>
       </c>
       <c r="D2" t="n">
-        <v>1007.536383705183</v>
+        <v>1246.299664650712</v>
       </c>
       <c r="E2" t="n">
-        <v>604.9528588217277</v>
+        <v>843.7161397672567</v>
       </c>
       <c r="F2" t="n">
-        <v>188.0584203517054</v>
+        <v>426.8217012972344</v>
       </c>
       <c r="G2" t="n">
-        <v>178.9360688801127</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H2" t="n">
-        <v>178.9360688801127</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703881</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L2" t="n">
-        <v>888.0455879192815</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="M2" t="n">
-        <v>1413.868477315137</v>
+        <v>550.6768587708644</v>
       </c>
       <c r="N2" t="n">
-        <v>1939.691366710992</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O2" t="n">
-        <v>1939.691366710992</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.430117555459</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.430117555459</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="X2" t="n">
-        <v>1392.977512488515</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.977512488515</v>
+        <v>2024.916294931114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.4844181182709</v>
+        <v>719.8044911105177</v>
       </c>
       <c r="C3" t="n">
-        <v>478.8301876783631</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="D3" t="n">
-        <v>348.7412202998435</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E3" t="n">
-        <v>212.2947294107312</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F3" t="n">
-        <v>87.86292329386298</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703881</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703881</v>
+        <v>89.88557988671069</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580652</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S3" t="n">
-        <v>1989.606249751809</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T3" t="n">
-        <v>1812.622437950718</v>
+        <v>1902.942510942964</v>
       </c>
       <c r="U3" t="n">
-        <v>1602.559294629359</v>
+        <v>1692.879367621606</v>
       </c>
       <c r="V3" t="n">
-        <v>1380.019293000426</v>
+        <v>1470.339365992673</v>
       </c>
       <c r="W3" t="n">
-        <v>1149.902047133713</v>
+        <v>1240.22212012596</v>
       </c>
       <c r="X3" t="n">
-        <v>960.594969483725</v>
+        <v>1050.915042475972</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.2807525592323</v>
+        <v>871.600825551479</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C4" t="n">
-        <v>617.2206878937177</v>
+        <v>810.2101031284294</v>
       </c>
       <c r="D4" t="n">
-        <v>617.2206878937177</v>
+        <v>810.2101031284294</v>
       </c>
       <c r="E4" t="n">
-        <v>488.3896497254941</v>
+        <v>654.6512909876319</v>
       </c>
       <c r="F4" t="n">
-        <v>331.063714938467</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.968099860102</v>
+        <v>892.3005824237027</v>
       </c>
       <c r="C5" t="n">
-        <v>1334.968099860102</v>
+        <v>499.1250809266333</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.968099860102</v>
+        <v>499.1250809266333</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.968099860102</v>
+        <v>499.1250809266333</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900801</v>
+        <v>373.7037278037244</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703881</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L5" t="n">
-        <v>894.7933862830295</v>
+        <v>678.4683905259792</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563756</v>
+        <v>1179.63517352143</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959612</v>
+        <v>1680.801956516881</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.53692685194</v>
+        <v>1858.402739872165</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.53692685194</v>
+        <v>1634.902137431581</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.53692685194</v>
+        <v>1634.902137431581</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.53692685194</v>
+        <v>1292.7953281351</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.911414006444</v>
+        <v>1292.7953281351</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.458808939501</v>
+        <v>1292.7953281351</v>
       </c>
       <c r="Y5" t="n">
-        <v>1334.968099860102</v>
+        <v>1292.7953281351</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955092</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>355.2925126556014</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>225.2035452770817</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671069</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703881</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703881</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>442.207294593816</v>
+        <v>382.5962686689245</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896712</v>
+        <v>883.7630516643752</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>2022.664336386115</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>1845.680524585024</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1635.617381263665</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1413.077379634733</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1182.960133768019</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X6" t="n">
-        <v>993.6530561180311</v>
+        <v>837.0572944609632</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364705</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>812.2025157668461</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C7" t="n">
-        <v>812.2025157668461</v>
+        <v>832.7487908629926</v>
       </c>
       <c r="D7" t="n">
-        <v>812.2025157668461</v>
+        <v>677.1156777655074</v>
       </c>
       <c r="E7" t="n">
-        <v>656.6437036260486</v>
+        <v>521.5568656247099</v>
       </c>
       <c r="F7" t="n">
-        <v>499.3177688390215</v>
+        <v>364.2309308376828</v>
       </c>
       <c r="G7" t="n">
-        <v>331.063714938467</v>
+        <v>195.9768769371283</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.7095233437991</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>1534.390271706639</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X8" t="n">
-        <v>1144.937666639696</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y8" t="n">
-        <v>748.4469575602968</v>
+        <v>2104.154988922119</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>336.6041277001235</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1391.743918024176</v>
+        <v>1563.569031584451</v>
       </c>
       <c r="C11" t="n">
-        <v>1093.509097814295</v>
+        <v>1265.33421137457</v>
       </c>
       <c r="D11" t="n">
-        <v>803.008650318151</v>
+        <v>974.833763878426</v>
       </c>
       <c r="E11" t="n">
-        <v>495.3658067218839</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F11" t="n">
-        <v>173.4120495390498</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774168</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2293.35993402035</v>
+        <v>2465.185047580625</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.848010240595</v>
+        <v>2170.67312380087</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.297982448385</v>
+        <v>1869.12309600866</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551009</v>
+        <v>493.0843669551008</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082785</v>
+        <v>417.8199303082784</v>
       </c>
       <c r="D13" t="n">
         <v>357.1274984979815</v>
@@ -5188,7 +5188,7 @@
         <v>234.1241141445336</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311674</v>
+        <v>160.8107415311675</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798498</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5206,19 +5206,19 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852108</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553822</v>
+        <v>711.5230842553821</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592138</v>
+        <v>583.3517043592137</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1520.303839177572</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1222.069018967691</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
-        <v>931.5685714715472</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E14" t="n">
-        <v>623.92572787528</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>623.92572787528</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>305.7036536504716</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>76.56128450415056</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358935</v>
@@ -5297,31 +5297,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2945.144336927564</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.978208918271</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.919855173747</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2127.407931393992</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>1825.857903601781</v>
+        <v>1986.669951879993</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646554</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878211</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5419,13 +5419,13 @@
         <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5440,28 +5440,28 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791397</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469763</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,10 +5473,10 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
         <v>583.351704359213</v>
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069231</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069231</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414175</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599514</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975436</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099311</v>
+        <v>542.67184050993</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5753,16 +5753,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840154</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843828</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843828</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1634.317313094942</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960399</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634304</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5972,52 +5972,52 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,16 +6063,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6127,7 +6127,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E25" t="n">
         <v>149.5651460634914</v>
@@ -6136,31 +6136,31 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072676</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229973</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222416</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960414</v>
+        <v>313.6614512960415</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343054</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
         <v>1094.77996610623</v>
@@ -6190,7 +6190,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6206,70 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390256</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429869</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932279</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107028</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,7 +6309,7 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
         <v>1689.449032728251</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107028</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.428440379499</v>
@@ -6497,13 +6497,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6546,7 +6546,7 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278174</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6598,19 +6598,19 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6619,7 +6619,7 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192011</v>
@@ -6634,7 +6634,7 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,10 +6658,10 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286449</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
         <v>594.5974356026481</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.220166667433</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474754</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282817</v>
+        <v>294.5666773855432</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209942</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322594</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>707.1820800376895</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756219</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800799</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078647</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970976</v>
+        <v>2577.354419973819</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>2950.16296084546</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3249.878056474708</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554795</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.2527302241127</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.44278775748636</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>422.9958160071728</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>609.2873943454368</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>900.9675360170318</v>
+        <v>810.7134513543749</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964894</v>
+        <v>973.4182183960829</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381858</v>
+        <v>1208.16391966096</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969603</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.603631730008</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.6934228967161</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
@@ -6929,58 +6929,58 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924216</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411554</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,16 +7011,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072659</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462909</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924213</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,19 +7193,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,16 +7248,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072653</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229811</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446686</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.546437901693</v>
+        <v>1624.546437901692</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.812188394757</v>
+        <v>1328.812188394756</v>
       </c>
       <c r="D41" t="n">
-        <v>1040.812311601558</v>
+        <v>1040.812311601557</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6700387082353</v>
+        <v>735.6700387082344</v>
       </c>
       <c r="F41" t="n">
-        <v>416.2168522283462</v>
+        <v>416.2168522283453</v>
       </c>
       <c r="G41" t="n">
-        <v>100.4953487064825</v>
+        <v>100.4953487064823</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>100.4953487064823</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3036.88408213696</v>
+        <v>3036.884082136959</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>3036.884082136959</v>
       </c>
       <c r="U41" t="n">
-        <v>3036.88408213696</v>
+        <v>3036.884082136959</v>
       </c>
       <c r="V41" t="n">
-        <v>2792.218524830612</v>
+        <v>2792.218524830611</v>
       </c>
       <c r="W41" t="n">
-        <v>2518.660741789033</v>
+        <v>2518.660741789031</v>
       </c>
       <c r="X41" t="n">
-        <v>2226.649388712222</v>
+        <v>2226.649388712221</v>
       </c>
       <c r="Y41" t="n">
-        <v>1927.599931622957</v>
+        <v>1927.599931622956</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7494,16 +7494,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344868</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906092</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D43" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325927</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
         <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690451</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>68.23195016744154</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529129</v>
+        <v>245.5691623529123</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022421</v>
+        <v>505.1989733022416</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160356</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.1941702377</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557622</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288785</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735655</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.707880260105</v>
+        <v>1693.618740970508</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1397.884491463572</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959969</v>
+        <v>1109.884614670373</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666466</v>
+        <v>804.7423417770506</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867574</v>
+        <v>485.2891552971619</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648938</v>
+        <v>169.5676517752978</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2752.513254111242</v>
+        <v>2861.290827899427</v>
       </c>
       <c r="W44" t="n">
-        <v>2747.822184147444</v>
+        <v>2587.733044857848</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.810831070634</v>
+        <v>2295.721691781037</v>
       </c>
       <c r="Y44" t="n">
-        <v>2156.761373981368</v>
+        <v>1996.672234691772</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,10 +7731,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843828</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344867</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906091</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D46" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E46" t="n">
         <v>286.5070848325926</v>
@@ -7795,13 +7795,13 @@
         <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690451</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
         <v>127.8475561822075</v>
@@ -7810,10 +7810,10 @@
         <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170081</v>
+        <v>564.8145793170082</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308015</v>
+        <v>846.6083287308018</v>
       </c>
       <c r="N46" t="n">
         <v>1125.30013383754</v>
@@ -7822,7 +7822,7 @@
         <v>1383.507071954778</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1598.885408806886</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.1941702377</v>
@@ -7843,13 +7843,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557621</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288784</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356549</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>644.7355367555228</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>156.3375808259618</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507692</v>
+        <v>655.3475650705626</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>542.46880136407</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565366</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>416.271567032805</v>
+        <v>655.9541253305058</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507692</v>
+        <v>655.3475650705626</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>310.4413912354952</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1412190763596</v>
+        <v>114.9717651887824</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671517</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>458.1505014870046</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N9" t="n">
-        <v>179.0738312465426</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>438.5811111539135</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931455</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>163.9964000092956</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931177</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931178</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>199.9106794075973</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.274574506988</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069877</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069877</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069882</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.274574506988</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684352</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.274574506988</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416653</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,16 +11145,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6030013529512</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888876</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416653</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>204.8598608659755</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.9624712641434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>240.9640074587146</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>145.23255658354</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.66473603210866</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.043798887022571e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>186.3829216665992</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822799</v>
+        <v>2.494447475884896</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>118.0013416284719</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>266.1780459470027</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>623337.7467990614</v>
+        <v>621533.1039577805</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623337.7467990614</v>
+        <v>621533.1039577805</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602801.7382709789</v>
+        <v>602801.7382709791</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602801.738270979</v>
+        <v>602801.7382709791</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605092.5023399494</v>
+        <v>605092.5023399492</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="C2" t="n">
         <v>703295.4945640914</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="E2" t="n">
         <v>660956.8784646288</v>
@@ -26326,22 +26326,22 @@
         <v>660956.8784646285</v>
       </c>
       <c r="G2" t="n">
+        <v>703295.4945640913</v>
+      </c>
+      <c r="H2" t="n">
         <v>703295.4945640914</v>
       </c>
-      <c r="H2" t="n">
-        <v>703295.4945640913</v>
-      </c>
       <c r="I2" t="n">
-        <v>703295.4945640914</v>
+        <v>703295.4945640917</v>
       </c>
       <c r="J2" t="n">
         <v>703295.4945640906</v>
       </c>
       <c r="K2" t="n">
-        <v>703295.4945640906</v>
+        <v>703295.4945640904</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.4945640919</v>
+        <v>703295.494564091</v>
       </c>
       <c r="M2" t="n">
         <v>703295.4945640916</v>
@@ -26350,10 +26350,10 @@
         <v>703295.4945640914</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546235</v>
+        <v>663838.8074546236</v>
       </c>
       <c r="P2" t="n">
-        <v>663838.8074546235</v>
+        <v>663838.8074546234</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602657</v>
+        <v>26460.41160941814</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>2.200761930212445e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670122</v>
+        <v>46725.80335481244</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015674</v>
+        <v>18983.55983015671</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234899.5431980371</v>
+        <v>239807.0746329794</v>
       </c>
       <c r="C4" t="n">
-        <v>234899.5431980371</v>
+        <v>239807.0746329793</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
         <v>174664.8493247784</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199696.8077779822</v>
+        <v>199563.4131689275</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,16 +26479,16 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890912</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224480.0929435539</v>
+        <v>229433.0863716092</v>
       </c>
       <c r="C6" t="n">
-        <v>402475.3900779049</v>
+        <v>399082.0922481592</v>
       </c>
       <c r="D6" t="n">
-        <v>391964.058349224</v>
+        <v>384227.7691258327</v>
       </c>
       <c r="E6" t="n">
-        <v>300726.8084932293</v>
+        <v>300618.2479391281</v>
       </c>
       <c r="F6" t="n">
-        <v>431179.7396309408</v>
+        <v>431071.1790768398</v>
       </c>
       <c r="G6" t="n">
-        <v>416761.5994072972</v>
+        <v>416761.5994072969</v>
       </c>
       <c r="H6" t="n">
         <v>445856.5552803114</v>
       </c>
       <c r="I6" t="n">
-        <v>445856.5552803115</v>
+        <v>445856.5552803118</v>
       </c>
       <c r="J6" t="n">
-        <v>217770.9119305612</v>
+        <v>224287.1970851343</v>
       </c>
       <c r="K6" t="n">
-        <v>439616.7868775278</v>
+        <v>439616.7868775275</v>
       </c>
       <c r="L6" t="n">
-        <v>400722.4399449409</v>
+        <v>396673.6027344677</v>
       </c>
       <c r="M6" t="n">
-        <v>403125.278345943</v>
+        <v>402073.5833347549</v>
       </c>
       <c r="N6" t="n">
         <v>445856.5552803114</v>
       </c>
       <c r="O6" t="n">
-        <v>413195.3746181464</v>
+        <v>413094.2036255581</v>
       </c>
       <c r="P6" t="n">
-        <v>432178.9344483031</v>
+        <v>432077.7634557146</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="3">
@@ -26747,37 +26747,37 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.496553529681651e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.496553529681651e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.40293277231859e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087653</v>
+        <v>58.40725419351554</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165935</v>
+        <v>14.33013548902042</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769593</v>
+        <v>23.72944978769588</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.496553529681651e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.705872255919</v>
+        <v>646.8007142757128</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455251</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>26.57098631225085</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>1.872868698816688</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>73.94075683959828</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.45992753481258</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>38.08517389604293</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>26.46049623284812</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>288.5583544936422</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>363.6997869643545</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>88.53168247915889</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>32.72750576796315</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.93804564576052</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326046</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.9197383799502</v>
+        <v>351.360975276331</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>165.8605139763687</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448957</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431611</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28746,13 +28746,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528154</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634529632</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634528012</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668856</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901107</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431641</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901147</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501838</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214113</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>13.98970481639662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465268099</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,16 +30174,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668695</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561693281</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023179</v>
+        <v>36.24905561693222</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693242</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702318</v>
+        <v>36.24905561693214</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702318</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
   </sheetData>
@@ -31999,25 +31999,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.276667220306502e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.583818577428089e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.762303336557641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.790819246974558e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.691019833262912e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.443246304563351e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.083817869259937e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -32081,19 +32081,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.1659611555367e-13</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.3606216736765e-13</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.396633280722568e-13</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.277646597402269e-13</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.025424033729054e-13</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32236,25 +32236,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.276667220306502e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.583818577428089e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.762303336557641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.790819246974558e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.691019833262912e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.443246304563351e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.083817869259937e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32318,19 +32318,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.1659611555367e-13</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.3606216736765e-13</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.396633280722568e-13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.277646597402269e-13</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.025424033729054e-13</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32947,25 +32947,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33029,16 +33029,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33184,25 +33184,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33421,25 +33421,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -33503,16 +33503,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33658,25 +33658,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33740,16 +33740,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33895,25 +33895,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -33977,16 +33977,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34132,25 +34132,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34369,25 +34369,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.228792199545008e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.524425380774536e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.69621696143673e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.723663525213012e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.627606589515553e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.389124568142225e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.04317469916269e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34451,16 +34451,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.122237612204073e-13</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.309598360913631e-13</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.344259532695472e-13</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.229734849999684e-13</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>491.4873670250312</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129851</v>
+        <v>6.61252922823453</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>450.0816793147582</v>
       </c>
       <c r="N3" t="n">
-        <v>530.94900390237</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>266.5465154350778</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>160.8775538113989</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>403.7540970270476</v>
+        <v>22.58464313947048</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>309.0320101492205</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N9" t="n">
-        <v>93.70171839237591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>346.1939891046017</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.401991121777</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828092</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
         <v>259.7767692963365</v>
@@ -35817,13 +35817,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.4480384844686</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>73.93605315237747</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.401991121777</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828092</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589874</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565481</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873216</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N21" t="n">
-        <v>662.401991121777</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>107.2231205187086</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456548</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529489</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565496</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060962</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425276</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.5073351254081</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192278</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047975</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065878</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110592</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576759</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215742</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060962</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425276</v>
+        <v>528.5755626272228</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254081</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039228</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201029</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065878</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110592</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698313</v>
+        <v>56.37828989698315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576759</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.697253080014</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367981</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988364</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065878</v>
+        <v>376.5742837087288</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110592</v>
+        <v>302.7425208376231</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659175</v>
+        <v>78.41684924923074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>247.8874524576764</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.371866175945</v>
+        <v>281.815328648584</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>199.0297391913554</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897598</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>119.4865978367165</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,16 +37470,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110584</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634527881</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37780,25 +37780,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006882</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>545.2308884987847</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144773742</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>118.9107133037422</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038427</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38181,7 +38181,7 @@
         <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451906</v>
@@ -38190,10 +38190,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548906</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038429</v>
+        <v>39.70581962708462</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
